--- a/open-api/src/test/resources/testCase.xlsx
+++ b/open-api/src/test/resources/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,57 +16,178 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+  <si>
+    <t>APPID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>079b8de8-0894-411b-aa48-853bb48f069d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1vreU6oapmduiMD75wWH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/register</t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/bankCard/cardBin?AppId=079b8de8-0894-411b-aa48-853bb48f069d&amp;cardNo=6228480402564890018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/products?AppId=079b8de8-0894-411b-aa48-853bb48f069d&amp;category=RYB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6e6033e4-2379-47fd-af3a-d61f2602bfd8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/bankCard/cardBin</t>
+  </si>
+  <si>
+    <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ParamJSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>httpcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResponseBody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{"clientId":"15000000000","clientSecret":"12345678a"}
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Auth</t>
+  </si>
+  <si>
+    <t>GroovyScript</t>
+  </si>
+  <si>
+    <t>assertType(HC:httpcode/RB:responsebody/GV:groovy)</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>卡Bin查询接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"cardNo":"6228480402564890018"}
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d
-AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":"error",
-"resultMessage":null,
-"errorDetail":"com.mdiaf.sgw.IsgException: Unknown transaction definition"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/security/login</t>
-  </si>
-  <si>
-    <t>AppId:079b8de8
-AppId:079b8de8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    println( object.get("cardBinResult").get("cardType"))
+    return (object.get("cardBinResult").get("cardType"))
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t>GV</t>
+  </si>
+  <si>
+    <t>debit2345</t>
+  </si>
+  <si>
+    <t>查询产品列表</t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/products</t>
+  </si>
+  <si>
+    <t>{"category":"RYB"}</t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    return (object.get("resultList").size())
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t>意见反馈_新增</t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/notice/feedbackAdd</t>
+  </si>
+  <si>
+    <t>{"description":"RYB"}</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appShareDetail </t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/content/appShareDetail</t>
+  </si>
+  <si>
+    <t>{"appShareCode":"SHARE_homepage"}</t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    return (object.get("title"))
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t>不错</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +202,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,12 +228,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,12 +247,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,125 +572,271 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="44.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="44.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="93.6" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57.6">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.6">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>404</v>
-      </c>
+    <row r="1" spans="1:11" ht="41.4" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="51.6" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="42" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48.6" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C2:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="D9">
+        <v>15500000000</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D19" r:id="rId1"/>
+    <hyperlink ref="D22" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/open-api/src/test/resources/testCase.xlsx
+++ b/open-api/src/test/resources/testCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>APPID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,29 +155,28 @@
     <t>POST</t>
   </si>
   <si>
+    <t xml:space="preserve">appShareDetail </t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/content/appShareDetail</t>
+  </si>
+  <si>
+    <t>{"appShareCode":"SHARE_homepage"}</t>
+  </si>
+  <si>
     <t>HC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appShareDetail </t>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/content/appShareDetail</t>
-  </si>
-  <si>
-    <t>{"appShareCode":"SHARE_homepage"}</t>
-  </si>
-  <si>
-    <t>import groovy.json.JsonSlurper
-def doTest(json) {
-    def jsonSlurper = new JsonSlurper()
-    def object = jsonSlurper.parseText(json)
-    assert object instanceof Map
-    return (object.get("title"))
-}
-doTest(json);</t>
-  </si>
-  <si>
-    <t>不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":"success","resultMessage":"处理成功"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -237,7 +236,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,9 +248,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -574,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -588,167 +584,167 @@
     <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
     <col min="7" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.21875" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="41.4" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="51.6" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="51.6" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="H3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="42" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48.6" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="G5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="5">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="48.6" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/open-api/src/test/resources/testCase.xlsx
+++ b/open-api/src/test/resources/testCase.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="548"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="548" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="security" sheetId="1" r:id="rId1"/>
+    <sheet name="bankCard" sheetId="4" r:id="rId2"/>
+    <sheet name="products" sheetId="3" r:id="rId3"/>
+    <sheet name="temp" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>APPID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,14 +98,60 @@
     <t>卡Bin查询接口</t>
   </si>
   <si>
-    <t xml:space="preserve">{"cardNo":"6228480402564890018"}
-</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>GV</t>
+  </si>
+  <si>
+    <t>debit2345</t>
+  </si>
+  <si>
+    <t>查询产品列表</t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/products</t>
+  </si>
+  <si>
+    <t>{"category":"RYB"}</t>
+  </si>
+  <si>
+    <t>意见反馈_新增</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appShareDetail </t>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"resultCode":"success","resultMessage":"处理成功"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    return (object.get("resultList").size())
+}
+doTest(json);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>import groovy.json.JsonSlurper
@@ -116,66 +163,122 @@
     return (object.get("cardBinResult").get("cardType"))
 }
 doTest(json);</t>
-  </si>
-  <si>
-    <t>GV</t>
-  </si>
-  <si>
-    <t>debit2345</t>
-  </si>
-  <si>
-    <t>查询产品列表</t>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/products</t>
-  </si>
-  <si>
-    <t>{"category":"RYB"}</t>
-  </si>
-  <si>
-    <t>import groovy.json.JsonSlurper
-def doTest(json) {
-    def jsonSlurper = new JsonSlurper()
-    def object = jsonSlurper.parseText(json)
-    assert object instanceof Map
-    return (object.get("resultList").size())
-}
-doTest(json);</t>
-  </si>
-  <si>
-    <t>意见反馈_新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/content/appShareDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clientId":"15500000000","clientSecret":"12345678a"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/tokenUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求会话创建</t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/createLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Client状态查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/queryClientStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://172.16.1.111/aiaf/sgw/v1/notice/feedbackAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appShareCode":"SHARE_homepage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"description":"RYB"}</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appShareDetail </t>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/content/appShareDetail</t>
-  </si>
-  <si>
-    <t>{"appShareCode":"SHARE_homepage"}</t>
-  </si>
-  <si>
-    <t>HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"resultCode":"success","resultMessage":"处理成功"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{"cardNo":"6228480402564890018"}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,15 +339,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -257,9 +357,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -568,183 +665,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="44.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="25.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.4" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9" ht="41.4" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="36" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:9" ht="50.4" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="27" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="9">
         <v>12</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="28.8" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="51.6" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="48.6" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -752,19 +808,273 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.8">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="58.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="40.200000000000003" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -811,12 +1121,12 @@
       </c>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -834,18 +1144,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/open-api/src/test/resources/testCase.xlsx
+++ b/open-api/src/test/resources/testCase.xlsx
@@ -8,16 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="security" sheetId="1" r:id="rId1"/>
-    <sheet name="bankCard" sheetId="4" r:id="rId2"/>
-    <sheet name="products" sheetId="3" r:id="rId3"/>
-    <sheet name="temp" sheetId="2" r:id="rId4"/>
+    <sheet name="products" sheetId="3" r:id="rId2"/>
+    <sheet name="payment" sheetId="5" r:id="rId3"/>
+    <sheet name="bankCard" sheetId="4" r:id="rId4"/>
+    <sheet name="temp" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="127">
   <si>
     <t>APPID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,9 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/bankCard/cardBin</t>
-  </si>
-  <si>
     <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
   </si>
   <si>
@@ -95,9 +93,6 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>卡Bin查询接口</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
@@ -107,21 +102,6 @@
     <t>GV</t>
   </si>
   <si>
-    <t>debit2345</t>
-  </si>
-  <si>
-    <t>查询产品列表</t>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/products</t>
-  </si>
-  <si>
-    <t>{"category":"RYB"}</t>
-  </si>
-  <si>
-    <t>意见反馈_新增</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
@@ -132,15 +112,108 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"resultCode":"success","resultMessage":"处理成功"}</t>
+    <t>http://172.16.1.111/aiaf/sgw/v1/content/appShareDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"clientId":"15500000000","clientSecret":"12345678a"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求会话创建</t>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/createLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户Client状态查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.111/aiaf/sgw/v1/security/queryClientStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"appShareCode":"SHARE_homepage"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>{
+  "clientId" : "18621506831",
+  "clientSecret" : "12345678a"
+}</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>HC</t>
+  </si>
+  <si>
+    <t>{
+  "clientId" : "18621506831",
+  "clientSecret" : "12345678b"
+}</t>
   </si>
   <si>
     <t>import groovy.json.JsonSlurper
@@ -148,10 +221,22 @@
     def jsonSlurper = new JsonSlurper()
     def object = jsonSlurper.parseText(json)
     assert object instanceof Map
-    return (object.get("resultList").size())
+    println( object.get("resultMessage"))
+    return (object.get("resultMessage"))
 }
 doTest(json);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+  </si>
+  <si>
+    <t>产品列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>产品详情</t>
   </si>
   <si>
     <t>import groovy.json.JsonSlurper
@@ -159,101 +244,269 @@
     def jsonSlurper = new JsonSlurper()
     def object = jsonSlurper.parseText(json)
     assert object instanceof Map
-    println( object.get("cardBinResult").get("cardType"))
-    return (object.get("cardBinResult").get("cardType"))
+    println( object.get("productDetail").get("productCategory"))
+    return (object.get("productDetail").get("productCategory"))
 }
 doTest(json);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/content/appShareDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RYB</t>
+  </si>
+  <si>
+    <t>未找到产品信息！</t>
+  </si>
+  <si>
+    <t>创建订单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "flag":"true",
+ "productId":"46978184",
+ "amount":"100"
+} </t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    println( object.get("orderDetail").get("amount"))
+    return (object.get("orderDetail").get("amount"))
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "flag":"true",
+ "productId":"4697818A",
+ "amount":"100"
+} </t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    println( object.get("resultCode"))
+    return (object.get("resultCode"))
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t>Api1000003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+ "flag":"true",
+ "productId":"46978184",
+ "amount":"10"
+} </t>
+  </si>
+  <si>
+    <t>投资金额需大于起购金额！</t>
   </si>
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/security/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"clientId":"15500000000","clientSecret":"12345678a"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/security/tokenUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppId:079b8de8-0894-411b-aa48-853bb48f069d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求会话创建</t>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/security/createLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户Client状态查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/security/queryClientStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HC</t>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    println( object.get("resultMessage"))
+    return (object.get("resultMessage"))
+}
+doTest(json);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"category" : "RYB"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"category" : "YQB"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    println( object.get("orderId"))
+    return (object.get("orderId"))
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t>购买成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+ "bankAccountId": "66411648",
+ "orderId": "6468225A",
+ "payPassword": "111111",
+ "payType": "BankCard"
+}</t>
+  </si>
+  <si>
+    <t>orderId参数与不合法</t>
+  </si>
+  <si>
+    <t>当前订单已存在，请勿重复提交！</t>
+  </si>
+  <si>
+    <t>重复购买</t>
+  </si>
+  <si>
+    <t>银行卡不存在！</t>
+  </si>
+  <si>
+    <t>银行卡账号有误</t>
+  </si>
+  <si>
+    <t>支付密码不正确，您还可以输入2次</t>
+  </si>
+  <si>
+    <t>密码有误</t>
+  </si>
+  <si>
+    <t>缺少必要参数：payType</t>
+  </si>
+  <si>
+    <t>参数缺失(payType)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+ "bankAccountId": "66411648",
+ "orderId": "64703884",
+ "payPassword": "111111",
+ "payType": "BankCard"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+ "bankAccountId": "66411645",
+ "orderId": "64703884",
+ "payPassword": "111111",
+ "payType": "BankCard"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+ "bankAccountId": "66411645",
+ "orderId": "64703884",
+ "payPassword": "111112",
+ "payType": "BankCard"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+ "bankAccountId": "66411645",
+ "orderId": "64703884",
+ "payPassword": "111111"
+}</t>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赎回</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/payment/sell</t>
+  </si>
+  <si>
+    <t>{
+ "agreementId":"64690044",
+ "amount":"100",
+ "payPassword":"111111",
+ "payType":"BankCard"
+}</t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    println( object.get("description"))
+    return (object.get("description"))
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t>你的退款请求已处理， 预计三个工作日后到账！</t>
+  </si>
+  <si>
+    <t>赎回成功</t>
+  </si>
+  <si>
+    <t>合同状态非法</t>
+  </si>
+  <si>
+    <t>重复赎回</t>
+  </si>
+  <si>
+    <t>{
+ "agreementId":"64690041",
+ "amount":"100",
+ "payPassword":"111111",
+ "payType":"BankCard"
+}</t>
+  </si>
+  <si>
+    <t>系统繁忙！</t>
+  </si>
+  <si>
+    <t>合同不存在</t>
+  </si>
+  <si>
+    <t>Api1000002</t>
+  </si>
+  <si>
+    <t>没有传入amount</t>
+  </si>
+  <si>
+    <t>{"resultCode":"300000042","resultMessage":"支付密码不正确，您还可以输入2次"}</t>
+  </si>
+  <si>
+    <t>密码不对</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/payment/sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/security/login</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/products</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/products/46978184</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/products/4697818A</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/payment/createOrder</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/payment/buy</t>
+  </si>
+  <si>
+    <t>RB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,24 +514,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://172.16.1.111/aiaf/sgw/v1/notice/feedbackAdd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"appShareCode":"SHARE_homepage"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"description":"RYB"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">{"cardNo":"6228480402564890018"}
-</t>
+    <t>{
+ "agreementId":"64690044",
+ "amount":"100",
+ "payPassword":"111111",
+ "payType":"BankCard"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "agreementId":"64690041",
+ "payPassword":"111111",
+"payType":"BankCard"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "agreementId":"64690041",
+ "amount":"100",
+ "payPassword":"111112",
+"payType":"BankCard"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>import groovy.json.JsonSlurper
+def doTest(json) {
+    def jsonSlurper = new JsonSlurper()
+    def object = jsonSlurper.parseText(json)
+    assert object instanceof Map
+    return (object.get("resultMessage"))
+}
+doTest(json);</t>
+  </si>
+  <si>
+    <t>密码格式错误</t>
+  </si>
+  <si>
+    <t>处理成功</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v1/security/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v2/security/register</t>
+  </si>
+  <si>
+    <t>http://172.16.1.85/aiaf/sgw/v4/security/register</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+  "mobile" : "13621506131",
+  "smsCaptcha" : "888888",
+  "clientSecret" : "12345@7_1.a",
+  "email" : "wang@jg365.cn",
+  "loginId":"1234"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "mobile" : "14621506131",
+  "smsCaptcha" : "888888",
+  "clientSecret" : "12345678a",
+  "email" : "wang@jg365.cn",
+  "loginId":"1234"
+} </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,9 +593,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -339,7 +643,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,8 +671,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,152 +1011,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
     <col min="11" max="11" width="17.109375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.4" customHeight="1">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="50.4" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="19" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="H3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>34</v>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2" display="http://172.16.1.111/aiaf/sgw/v1/security/login"/>
+    <hyperlink ref="B2" r:id="rId3" display="http://172.16.1.111/aiaf/sgw/v2/security/register"/>
+    <hyperlink ref="B3" r:id="rId4" display="http://172.16.1.111/aiaf/sgw/v1/security/register"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -819,174 +1197,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="28.8">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8">
-      <c r="A5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1004,72 +1215,839 @@
   <sheetData>
     <row r="1" spans="1:10" s="4" customFormat="1" ht="41.4" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" ht="40.200000000000003" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
         <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://172.16.1.111/aiaf/sgw/v1/products"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://172.16.1.111/aiaf/sgw/v1/products"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://172.16.1.111/aiaf/sgw/v1/products/46978184"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://172.16.1.111/aiaf/sgw/v1/products/4697818A"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="12">
+        <v>64703884</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.95" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://172.16.1.111/aiaf/sgw/v1/payment/createOrder"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://172.16.1.111/aiaf/sgw/v1/payment/createOrder"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://172.16.1.111/aiaf/sgw/v1/payment/createOrder"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://172.16.1.111/aiaf/sgw/v1/payment/buy"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://172.16.1.111/aiaf/sgw/v1/payment/buy"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://172.16.1.111/aiaf/sgw/v1/payment/buy"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://172.16.1.111/aiaf/sgw/v1/payment/buy"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://172.16.1.111/aiaf/sgw/v1/payment/buy"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://172.16.1.111/aiaf/sgw/v1/payment/buy"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://172.16.1.111/aiaf/sgw/v1/payment/sell"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://172.16.1.111/aiaf/sgw/v1/payment/sell"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://172.16.1.111/aiaf/sgw/v1/payment/sell"/>
+    <hyperlink ref="B15" r:id="rId14" display="http://172.16.1.111/aiaf/sgw/v1/payment/sell"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="4" customFormat="1" ht="41.4" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="28.8">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
+      <c r="A5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:E25"/>
   <sheetViews>
